--- a/volunteer_info.xlsx
+++ b/volunteer_info.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="stat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="349">
   <si>
     <t>Ruijie</t>
   </si>
@@ -642,16 +643,472 @@
   </si>
   <si>
     <t>Fri Jul 19 15:42:07 2019</t>
+  </si>
+  <si>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>subject1_background_0</t>
+  </si>
+  <si>
+    <t>subject1_background_1</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:28:04 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:26:28 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:29:44 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:30:41 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:31:40 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:33:06 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:34:17 2019</t>
+  </si>
+  <si>
+    <t>7.falling</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:36:03 2019</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>subject2_background_0</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:38:36 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:40:52 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:42:14 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:43:14 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:44:28 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:45:14 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:46:04 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct  2 13:47:18 2019</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>subject3_background_0.txt</t>
+  </si>
+  <si>
+    <t>subject3_background_1.txt</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:33:48 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:36:03 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:37:43 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:39:35 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:41:30 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:42:34 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:44:09 2019</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 13:47:26 2019</t>
+  </si>
+  <si>
+    <t>subject1_background_tof</t>
+  </si>
+  <si>
+    <t>subject1_background_video</t>
+  </si>
+  <si>
+    <t>subject1_1_0</t>
+  </si>
+  <si>
+    <t>subject1_1_1</t>
+  </si>
+  <si>
+    <t>subject1_2_0</t>
+  </si>
+  <si>
+    <t>subject1_3_0</t>
+  </si>
+  <si>
+    <t>subject1_2_1</t>
+  </si>
+  <si>
+    <t>subject1_3_1</t>
+  </si>
+  <si>
+    <t>subject1_4_0</t>
+  </si>
+  <si>
+    <t>subject1_5_0</t>
+  </si>
+  <si>
+    <t>subject1_6_0</t>
+  </si>
+  <si>
+    <t>subject1_7_0</t>
+  </si>
+  <si>
+    <t>subject1_4_1</t>
+  </si>
+  <si>
+    <t>subject1_5_1</t>
+  </si>
+  <si>
+    <t>subject1_6_1</t>
+  </si>
+  <si>
+    <t>subject1_7_1</t>
+  </si>
+  <si>
+    <t>subject1_1_tof</t>
+  </si>
+  <si>
+    <t>subject1_2_tof</t>
+  </si>
+  <si>
+    <t>subject1_3_tof</t>
+  </si>
+  <si>
+    <t>subject1_4_tof</t>
+  </si>
+  <si>
+    <t>subject1_5_tof</t>
+  </si>
+  <si>
+    <t>subject1_6_tof</t>
+  </si>
+  <si>
+    <t>subject1_7_tof</t>
+  </si>
+  <si>
+    <t>subject1_1_video</t>
+  </si>
+  <si>
+    <t>subject1_2_video</t>
+  </si>
+  <si>
+    <t>subject1_3_video</t>
+  </si>
+  <si>
+    <t>subject1_4_video</t>
+  </si>
+  <si>
+    <t>subject1_5_video</t>
+  </si>
+  <si>
+    <t>subject1_6_video</t>
+  </si>
+  <si>
+    <t>subject1_7_video</t>
+  </si>
+  <si>
+    <t>subject2_background_1</t>
+  </si>
+  <si>
+    <t>subject2_1_0</t>
+  </si>
+  <si>
+    <t>subject2_2_0</t>
+  </si>
+  <si>
+    <t>subject2_3_0</t>
+  </si>
+  <si>
+    <t>subject2_4_0</t>
+  </si>
+  <si>
+    <t>subject2_5_0</t>
+  </si>
+  <si>
+    <t>subject2_6_0</t>
+  </si>
+  <si>
+    <t>subject2_7_0</t>
+  </si>
+  <si>
+    <t>subject2_1_1</t>
+  </si>
+  <si>
+    <t>subject2_2_1</t>
+  </si>
+  <si>
+    <t>subject2_3_1</t>
+  </si>
+  <si>
+    <t>subject2_4_1</t>
+  </si>
+  <si>
+    <t>subject2_5_1</t>
+  </si>
+  <si>
+    <t>subject2_6_1</t>
+  </si>
+  <si>
+    <t>subject2_7_1</t>
+  </si>
+  <si>
+    <t>subject2_background_tof</t>
+  </si>
+  <si>
+    <t>subject2_2_tof</t>
+  </si>
+  <si>
+    <t>subject2_3_tof</t>
+  </si>
+  <si>
+    <t>subject2_4_tof</t>
+  </si>
+  <si>
+    <t>subject2_5_tof</t>
+  </si>
+  <si>
+    <t>subject2_6_tof</t>
+  </si>
+  <si>
+    <t>subject2_7_tof</t>
+  </si>
+  <si>
+    <t>subject2_background_video</t>
+  </si>
+  <si>
+    <t>subject2_1_tof</t>
+  </si>
+  <si>
+    <t>subjec2_1_video</t>
+  </si>
+  <si>
+    <t>subjec2_2_video</t>
+  </si>
+  <si>
+    <t>subjec2_3_video</t>
+  </si>
+  <si>
+    <t>subjec2_4_video</t>
+  </si>
+  <si>
+    <t>subjec2_5_video</t>
+  </si>
+  <si>
+    <t>subjec2_6_video</t>
+  </si>
+  <si>
+    <t>subjec2_7_video</t>
+  </si>
+  <si>
+    <t>subject3_1_0</t>
+  </si>
+  <si>
+    <t>subject3_2_0</t>
+  </si>
+  <si>
+    <t>subject3_3_0</t>
+  </si>
+  <si>
+    <t>subject3_4_0</t>
+  </si>
+  <si>
+    <t>subject3_5_0</t>
+  </si>
+  <si>
+    <t>subject3_6_0</t>
+  </si>
+  <si>
+    <t>subject3_7_0</t>
+  </si>
+  <si>
+    <t>subject3_1_1</t>
+  </si>
+  <si>
+    <t>subject3_2_1</t>
+  </si>
+  <si>
+    <t>subject3_3_1</t>
+  </si>
+  <si>
+    <t>subject3_4_1</t>
+  </si>
+  <si>
+    <t>subject3_5_1</t>
+  </si>
+  <si>
+    <t>subject3_6_1</t>
+  </si>
+  <si>
+    <t>subject3_7_1</t>
+  </si>
+  <si>
+    <t>subject3_background_tof</t>
+  </si>
+  <si>
+    <t>subject3_1_tof</t>
+  </si>
+  <si>
+    <t>subject3_2_tof</t>
+  </si>
+  <si>
+    <t>subject3_3_tof</t>
+  </si>
+  <si>
+    <t>subject3_4_tof</t>
+  </si>
+  <si>
+    <t>subject3_5_tof</t>
+  </si>
+  <si>
+    <t>subject3_6_tof</t>
+  </si>
+  <si>
+    <t>subject3_7_tof</t>
+  </si>
+  <si>
+    <t>subject3_background_video</t>
+  </si>
+  <si>
+    <t>subject3_1_video</t>
+  </si>
+  <si>
+    <t>subject3_2_video</t>
+  </si>
+  <si>
+    <t>subject3_3_video</t>
+  </si>
+  <si>
+    <t>subject3_4_video</t>
+  </si>
+  <si>
+    <t>subject3_5_video</t>
+  </si>
+  <si>
+    <t>subject3_6_video</t>
+  </si>
+  <si>
+    <t>subject3_7_video</t>
+  </si>
+  <si>
+    <t>subject4</t>
+  </si>
+  <si>
+    <t>subject5</t>
+  </si>
+  <si>
+    <t>subject6</t>
+  </si>
+  <si>
+    <t>subject7</t>
+  </si>
+  <si>
+    <t>subject8</t>
+  </si>
+  <si>
+    <t>single frame</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>training accuracy</t>
+  </si>
+  <si>
+    <t>test accuracy</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>stand on the side</t>
+  </si>
+  <si>
+    <t>sit on the middle</t>
+  </si>
+  <si>
+    <t>lie on the bed</t>
+  </si>
+  <si>
+    <t>sit on the side</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sit on the mid</t>
+  </si>
+  <si>
+    <t>With motion test case</t>
+  </si>
+  <si>
+    <t>self training reslut</t>
+  </si>
+  <si>
+    <t>stable test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,10 +1134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J60"/>
+  <dimension ref="A2:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,9 +1434,10 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="6" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1059,6 +1521,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E12" t="s">
         <v>59</v>
       </c>
@@ -1093,6 +1558,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>330</v>
+      </c>
       <c r="D15" t="s">
         <v>86</v>
       </c>
@@ -1215,6 +1683,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>331</v>
+      </c>
       <c r="D23" t="s">
         <v>94</v>
       </c>
@@ -1337,6 +1808,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>332</v>
+      </c>
       <c r="D31" t="s">
         <v>107</v>
       </c>
@@ -1459,6 +1933,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>333</v>
+      </c>
       <c r="D39" t="s">
         <v>167</v>
       </c>
@@ -1584,6 +2061,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>334</v>
+      </c>
       <c r="D47" t="s">
         <v>189</v>
       </c>
@@ -1617,7 +2097,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>191</v>
       </c>
@@ -1634,7 +2114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>192</v>
       </c>
@@ -1651,7 +2131,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>193</v>
       </c>
@@ -1668,7 +2148,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>194</v>
       </c>
@@ -1685,47 +2165,1176 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" t="s">
+        <v>240</v>
+      </c>
+      <c r="J55" t="s">
+        <v>200</v>
+      </c>
+      <c r="K55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>178</v>
+      </c>
+      <c r="B56">
+        <v>88</v>
+      </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" t="s">
+        <v>202</v>
+      </c>
+      <c r="K56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" t="s">
+        <v>204</v>
+      </c>
+      <c r="K57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="F58" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="F59" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" t="s">
+        <v>258</v>
+      </c>
+      <c r="H59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>248</v>
+      </c>
+      <c r="F60" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" t="s">
+        <v>261</v>
+      </c>
+      <c r="H62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" t="s">
+        <v>284</v>
+      </c>
+      <c r="H64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" t="s">
+        <v>292</v>
+      </c>
+      <c r="H65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" t="s">
+        <v>271</v>
+      </c>
+      <c r="F66" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66" t="s">
+        <v>285</v>
+      </c>
+      <c r="H66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" t="s">
+        <v>281</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>282</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" t="s">
+        <v>315</v>
+      </c>
+      <c r="H74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" t="s">
+        <v>302</v>
+      </c>
+      <c r="F76" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76" t="s">
+        <v>317</v>
+      </c>
+      <c r="H76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77" t="s">
+        <v>318</v>
+      </c>
+      <c r="H77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78" t="s">
+        <v>319</v>
+      </c>
+      <c r="H78" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" t="s">
+        <v>313</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+      <c r="H80" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>16/29</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E22" s="4">
+        <f>13/29</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="4">
+        <f>2/29</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f>4/29</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="E23" s="4">
+        <f>22/29</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f>2/29</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f>29/30</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="4">
+        <f>1/29</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <f>4/29</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f>23/29</f>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <f>5/30</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f>25/30</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="4">
+        <f>28/29</f>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f>1/29</f>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>